--- a/amigo_webservice/AmigoProcessManagement/Templates/Excel/CompletionNotice_Template.xlsx
+++ b/amigo_webservice/AmigoProcessManagement/Templates/Excel/CompletionNotice_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.45\File_Srv\開発共用\XZ-XH501_Amigo事務処理システム化\070外部設計書 (Q110設計･開発管理規定)\02.画面仕様\01.商談契約\帳票テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\jimugo\amigo_webservice\AmigoProcessManagement\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14136"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="CompletionNotice_Template" sheetId="518" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CompletionNotice_Template!$A$1:$X$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CompletionNotice_Template!$A$1:$X$58</definedName>
     <definedName name="regList">#REF!</definedName>
     <definedName name="率1">'[1]05労務費'!$AV$3:$BI$32</definedName>
     <definedName name="率2">'[1]05労務費'!$BK$3:$BX$31</definedName>
@@ -335,40 +335,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="33">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_)"/>
-    <numFmt numFmtId="178" formatCode="###,000"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="d\.m\.yy"/>
-    <numFmt numFmtId="184" formatCode="d\.mmm"/>
-    <numFmt numFmtId="185" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="General_)"/>
-    <numFmt numFmtId="189" formatCode="#,###,&quot; &quot;"/>
-    <numFmt numFmtId="190" formatCode="#,##0.00&quot; F&quot;_);\(#,##0.00&quot; F&quot;\)"/>
-    <numFmt numFmtId="191" formatCode="#,##0&quot; $&quot;;\-#,##0&quot; $&quot;"/>
-    <numFmt numFmtId="192" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="195" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="196" formatCode="&quot;¥&quot;#,##0.00;\-&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="197" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="198" formatCode="#,##0&quot; &quot;;[Red]&quot;▲&quot;#,##0&quot; &quot;"/>
-    <numFmt numFmtId="199" formatCode="&quot;¥&quot;#,##0.00;[Red]\-&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="200" formatCode="&quot;¥&quot;#,##0;[Red]\-&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="201" formatCode="00.000"/>
+  <numFmts count="32">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00_);&quot;¥&quot;&quot;¥&quot;\(&quot;$&quot;#,##0.00&quot;¥&quot;&quot;¥&quot;\)"/>
+    <numFmt numFmtId="172" formatCode="0.00_)"/>
+    <numFmt numFmtId="173" formatCode="###,000"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="d\.m\.yy"/>
+    <numFmt numFmtId="176" formatCode="d\.mmm"/>
+    <numFmt numFmtId="177" formatCode="General_)"/>
+    <numFmt numFmtId="178" formatCode="#,###,&quot; &quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot; F&quot;_);\(#,##0.00&quot; F&quot;\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot; $&quot;;\-#,##0&quot; $&quot;"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.00;\-&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="#,##0&quot; &quot;;[Red]&quot;▲&quot;#,##0&quot; &quot;"/>
+    <numFmt numFmtId="188" formatCode="&quot;¥&quot;#,##0.00;[Red]\-&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;¥&quot;#,##0;[Red]\-&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="190" formatCode="00.000"/>
   </numFmts>
   <fonts count="164">
     <font>
@@ -381,7 +380,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -389,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -397,7 +396,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -405,7 +404,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -413,7 +412,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -421,7 +420,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -441,7 +440,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,7 +448,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,7 +491,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -569,7 +568,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -605,7 +604,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2456,7 +2455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="459">
+  <cellStyleXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2469,7 +2468,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -2478,11 +2477,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2505,41 +2503,41 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="7" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="23" fillId="7" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="8" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="24" fillId="8" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="12" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="25" fillId="12" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2557,7 +2555,7 @@
     <xf numFmtId="0" fontId="27" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2636,8 +2634,8 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="8" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="6" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2845,17 +2843,15 @@
     <xf numFmtId="0" fontId="55" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="39" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="44" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2881,8 +2877,8 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="77" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2914,20 +2910,20 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="84" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="46" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="85" fillId="39" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="68" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="86" fillId="0" borderId="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="86" fillId="0" borderId="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="87" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -3049,7 +3045,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="86" fillId="1" borderId="8" applyBorder="0" applyProtection="0">
+    <xf numFmtId="178" fontId="86" fillId="1" borderId="8" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0"/>
@@ -3057,8 +3053,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3110,7 +3106,7 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3126,8 +3122,8 @@
     <xf numFmtId="0" fontId="105" fillId="44" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="107" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3135,8 +3131,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="48" applyBorder="0"/>
-    <xf numFmtId="42" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3189,8 +3185,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3212,8 +3208,8 @@
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="121" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="121" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="121" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="121" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="122" fillId="56" borderId="47">
@@ -3299,17 +3295,17 @@
     <xf numFmtId="0" fontId="132" fillId="39" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="133" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="133" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="185" fontId="133" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="133" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="134" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3320,10 +3316,10 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="136" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="136" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="115" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="136" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="136" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="46" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3409,8 +3405,8 @@
     <xf numFmtId="0" fontId="148" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="149" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="149" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="149" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="149" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3479,25 +3475,25 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="55" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="55" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="55" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="55" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="54" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="54" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3512,28 +3508,28 @@
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3545,574 +3541,571 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="459">
-    <cellStyle name="          _x000d__x000a_mouse.drv=lmouse.drv" xfId="56"/>
-    <cellStyle name="_x000a_mouse.drv=lm" xfId="57"/>
-    <cellStyle name="_x000c_ーセン_x000c_" xfId="58"/>
-    <cellStyle name="????????????nalysission " xfId="59"/>
-    <cellStyle name="????????????t??c Change " xfId="60"/>
-    <cellStyle name="???????IT COST" xfId="61"/>
-    <cellStyle name="????_??? " xfId="62"/>
-    <cellStyle name="???ｷｷ???????nalysission " xfId="63"/>
-    <cellStyle name="??_?? ??9.28(?" xfId="64"/>
-    <cellStyle name="?W・_???E香・ " xfId="65"/>
-    <cellStyle name="_【仕掛】外部設計書(xx.RFQ一覧)" xfId="66"/>
-    <cellStyle name="_2007 NBA VTT V07 23-08-07_Jutathip (MOL)_Brazil_(Rev) " xfId="67"/>
-    <cellStyle name="_Book1" xfId="68"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)" xfId="69"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_チェック処理" xfId="70"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_機能定義書" xfId="71"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_機能定義書 2" xfId="72"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_変更履歴" xfId="73"/>
-    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_変更履歴 2" xfId="74"/>
-    <cellStyle name="_SACLA-PS_外部設計書(6.仕入実績一覧)_サービス" xfId="75"/>
-    <cellStyle name="_チェック処理" xfId="76"/>
-    <cellStyle name="_画面レイアウト" xfId="77"/>
-    <cellStyle name="_画面設計書" xfId="78"/>
-    <cellStyle name="_機能定義書" xfId="79"/>
-    <cellStyle name="_変更履歴" xfId="80"/>
-    <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="81"/>
-    <cellStyle name="•W€_Book4" xfId="82"/>
+  <cellStyles count="456">
+    <cellStyle name="          _x000d__x000a_mouse.drv=lmouse.drv" xfId="55"/>
+    <cellStyle name="_x000a_mouse.drv=lm" xfId="56"/>
+    <cellStyle name="_x000c_ーセン_x000c_" xfId="57"/>
+    <cellStyle name="????????????nalysission " xfId="58"/>
+    <cellStyle name="????????????t??c Change " xfId="59"/>
+    <cellStyle name="???????IT COST" xfId="60"/>
+    <cellStyle name="????_??? " xfId="61"/>
+    <cellStyle name="???ｷｷ???????nalysission " xfId="62"/>
+    <cellStyle name="??_?? ??9.28(?" xfId="63"/>
+    <cellStyle name="?W・_???E香・ " xfId="64"/>
+    <cellStyle name="_【仕掛】外部設計書(xx.RFQ一覧)" xfId="65"/>
+    <cellStyle name="_2007 NBA VTT V07 23-08-07_Jutathip (MOL)_Brazil_(Rev) " xfId="66"/>
+    <cellStyle name="_Book1" xfId="67"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)" xfId="68"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_チェック処理" xfId="69"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_変更履歴" xfId="72"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_変更履歴 2" xfId="73"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_機能定義書" xfId="70"/>
+    <cellStyle name="_SACLA-PS_外部設計書(0.メニュ-)_機能定義書 2" xfId="71"/>
+    <cellStyle name="_SACLA-PS_外部設計書(6.仕入実績一覧)_サービス" xfId="74"/>
+    <cellStyle name="_チェック処理" xfId="75"/>
+    <cellStyle name="_変更履歴" xfId="79"/>
+    <cellStyle name="_機能定義書" xfId="78"/>
+    <cellStyle name="_画面レイアウト" xfId="76"/>
+    <cellStyle name="_画面設計書" xfId="77"/>
+    <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="80"/>
+    <cellStyle name="•W€_Book4" xfId="81"/>
     <cellStyle name="-æØè [0.00]_Model Mix" xfId="83"/>
+æØè [0.00]_Model Mix" xfId="82"/>
     <cellStyle name="-æØè_Model Mix" xfId="84"/>
-    <cellStyle name="ÊÝ [0.00]_Model Mix" xfId="85"/>
-    <cellStyle name="ÊÝ_Model Mix" xfId="86"/>
-    <cellStyle name="W_English Format" xfId="87"/>
-    <cellStyle name="20% - Accent1" xfId="88"/>
-    <cellStyle name="20% - Accent2" xfId="89"/>
-    <cellStyle name="20% - Accent3" xfId="90"/>
-    <cellStyle name="20% - Accent4" xfId="91"/>
-    <cellStyle name="20% - Accent5" xfId="92"/>
-    <cellStyle name="20% - Accent6" xfId="93"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="94"/>
-    <cellStyle name="20% - アクセント 1 3" xfId="95"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="96"/>
-    <cellStyle name="20% - アクセント 2 3" xfId="97"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="98"/>
-    <cellStyle name="20% - アクセント 3 3" xfId="99"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="100"/>
-    <cellStyle name="20% - アクセント 4 3" xfId="101"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="102"/>
-    <cellStyle name="20% - アクセント 5 3" xfId="103"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="104"/>
-    <cellStyle name="20% - アクセント 6 3" xfId="105"/>
-    <cellStyle name="20% - アクセント1" xfId="106"/>
-    <cellStyle name="20% - アクセント2" xfId="107"/>
-    <cellStyle name="20% - アクセント3" xfId="108"/>
-    <cellStyle name="20% - アクセント4" xfId="109"/>
-    <cellStyle name="20% - アクセント5" xfId="110"/>
-    <cellStyle name="20% - アクセント6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="117"/>
-    <cellStyle name="40% - Accent1" xfId="118"/>
-    <cellStyle name="40% - Accent2" xfId="119"/>
-    <cellStyle name="40% - Accent3" xfId="120"/>
-    <cellStyle name="40% - Accent4" xfId="121"/>
-    <cellStyle name="40% - Accent5" xfId="122"/>
-    <cellStyle name="40% - Accent6" xfId="123"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="124"/>
-    <cellStyle name="40% - アクセント 1 3" xfId="125"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="126"/>
-    <cellStyle name="40% - アクセント 2 3" xfId="127"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="128"/>
-    <cellStyle name="40% - アクセント 3 3" xfId="129"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="130"/>
-    <cellStyle name="40% - アクセント 4 3" xfId="131"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="132"/>
-    <cellStyle name="40% - アクセント 5 3" xfId="133"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="134"/>
-    <cellStyle name="40% - アクセント 6 3" xfId="135"/>
-    <cellStyle name="40% - アクセント1" xfId="136"/>
-    <cellStyle name="40% - アクセント2" xfId="137"/>
-    <cellStyle name="40% - アクセント3" xfId="138"/>
-    <cellStyle name="40% - アクセント4" xfId="139"/>
-    <cellStyle name="40% - アクセント5" xfId="140"/>
-    <cellStyle name="40% - アクセント6" xfId="141"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="142"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="143"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="144"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="145"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="146"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="147"/>
-    <cellStyle name="60% - Accent1" xfId="148"/>
-    <cellStyle name="60% - Accent2" xfId="149"/>
-    <cellStyle name="60% - Accent3" xfId="150"/>
-    <cellStyle name="60% - Accent4" xfId="151"/>
-    <cellStyle name="60% - Accent5" xfId="152"/>
-    <cellStyle name="60% - Accent6" xfId="153"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="154"/>
-    <cellStyle name="60% - アクセント 1 3" xfId="155"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="156"/>
-    <cellStyle name="60% - アクセント 2 3" xfId="157"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="158"/>
-    <cellStyle name="60% - アクセント 3 3" xfId="159"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="160"/>
-    <cellStyle name="60% - アクセント 4 3" xfId="161"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="162"/>
-    <cellStyle name="60% - アクセント 5 3" xfId="163"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="164"/>
-    <cellStyle name="60% - アクセント 6 3" xfId="165"/>
-    <cellStyle name="60% - アクセント1" xfId="166"/>
-    <cellStyle name="60% - アクセント2" xfId="167"/>
-    <cellStyle name="60% - アクセント3" xfId="168"/>
-    <cellStyle name="60% - アクセント4" xfId="169"/>
-    <cellStyle name="60% - アクセント5" xfId="170"/>
-    <cellStyle name="60% - アクセント6" xfId="171"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="172"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="174"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="175"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="176"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="177"/>
-    <cellStyle name="Accent1" xfId="178"/>
-    <cellStyle name="Accent2" xfId="179"/>
-    <cellStyle name="Accent3" xfId="180"/>
-    <cellStyle name="Accent4" xfId="181"/>
-    <cellStyle name="Accent5" xfId="182"/>
-    <cellStyle name="Accent6" xfId="183"/>
-    <cellStyle name="AeE­ [0]_½CAuCoE² " xfId="184"/>
-    <cellStyle name="AeE­_½CAuCoE² " xfId="185"/>
-    <cellStyle name="AÞ¸¶ [0]_½CAuCoE² " xfId="186"/>
-    <cellStyle name="AÞ¸¶_½CAuCoE² " xfId="187"/>
-    <cellStyle name="Bad" xfId="188"/>
-    <cellStyle name="C?AØ_¿?¾÷CoE² " xfId="189"/>
-    <cellStyle name="C￥AØ_¿μ¾÷CoE² " xfId="190"/>
+æØè_Model Mix" xfId="83"/>
+    <cellStyle name="ÊÝ [0.00]_Model Mix" xfId="84"/>
+    <cellStyle name="ÊÝ_Model Mix" xfId="85"/>
+    <cellStyle name="W_English Format" xfId="86"/>
+    <cellStyle name="20% - Accent1" xfId="87"/>
+    <cellStyle name="20% - Accent2" xfId="88"/>
+    <cellStyle name="20% - Accent3" xfId="89"/>
+    <cellStyle name="20% - Accent4" xfId="90"/>
+    <cellStyle name="20% - Accent5" xfId="91"/>
+    <cellStyle name="20% - Accent6" xfId="92"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="93"/>
+    <cellStyle name="20% - アクセント 1 3" xfId="94"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="95"/>
+    <cellStyle name="20% - アクセント 2 3" xfId="96"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="97"/>
+    <cellStyle name="20% - アクセント 3 3" xfId="98"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="99"/>
+    <cellStyle name="20% - アクセント 4 3" xfId="100"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="101"/>
+    <cellStyle name="20% - アクセント 5 3" xfId="102"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="103"/>
+    <cellStyle name="20% - アクセント 6 3" xfId="104"/>
+    <cellStyle name="20% - アクセント1" xfId="105"/>
+    <cellStyle name="20% - アクセント2" xfId="106"/>
+    <cellStyle name="20% - アクセント3" xfId="107"/>
+    <cellStyle name="20% - アクセント4" xfId="108"/>
+    <cellStyle name="20% - アクセント5" xfId="109"/>
+    <cellStyle name="20% - アクセント6" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="116"/>
+    <cellStyle name="40% - Accent1" xfId="117"/>
+    <cellStyle name="40% - Accent2" xfId="118"/>
+    <cellStyle name="40% - Accent3" xfId="119"/>
+    <cellStyle name="40% - Accent4" xfId="120"/>
+    <cellStyle name="40% - Accent5" xfId="121"/>
+    <cellStyle name="40% - Accent6" xfId="122"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="123"/>
+    <cellStyle name="40% - アクセント 1 3" xfId="124"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="125"/>
+    <cellStyle name="40% - アクセント 2 3" xfId="126"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="127"/>
+    <cellStyle name="40% - アクセント 3 3" xfId="128"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="129"/>
+    <cellStyle name="40% - アクセント 4 3" xfId="130"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="131"/>
+    <cellStyle name="40% - アクセント 5 3" xfId="132"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="133"/>
+    <cellStyle name="40% - アクセント 6 3" xfId="134"/>
+    <cellStyle name="40% - アクセント1" xfId="135"/>
+    <cellStyle name="40% - アクセント2" xfId="136"/>
+    <cellStyle name="40% - アクセント3" xfId="137"/>
+    <cellStyle name="40% - アクセント4" xfId="138"/>
+    <cellStyle name="40% - アクセント5" xfId="139"/>
+    <cellStyle name="40% - アクセント6" xfId="140"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="141"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="142"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="143"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="144"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="145"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="146"/>
+    <cellStyle name="60% - Accent1" xfId="147"/>
+    <cellStyle name="60% - Accent2" xfId="148"/>
+    <cellStyle name="60% - Accent3" xfId="149"/>
+    <cellStyle name="60% - Accent4" xfId="150"/>
+    <cellStyle name="60% - Accent5" xfId="151"/>
+    <cellStyle name="60% - Accent6" xfId="152"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="153"/>
+    <cellStyle name="60% - アクセント 1 3" xfId="154"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="155"/>
+    <cellStyle name="60% - アクセント 2 3" xfId="156"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="157"/>
+    <cellStyle name="60% - アクセント 3 3" xfId="158"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="159"/>
+    <cellStyle name="60% - アクセント 4 3" xfId="160"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="161"/>
+    <cellStyle name="60% - アクセント 5 3" xfId="162"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="163"/>
+    <cellStyle name="60% - アクセント 6 3" xfId="164"/>
+    <cellStyle name="60% - アクセント1" xfId="165"/>
+    <cellStyle name="60% - アクセント2" xfId="166"/>
+    <cellStyle name="60% - アクセント3" xfId="167"/>
+    <cellStyle name="60% - アクセント4" xfId="168"/>
+    <cellStyle name="60% - アクセント5" xfId="169"/>
+    <cellStyle name="60% - アクセント6" xfId="170"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="171"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="173"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="174"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="175"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="176"/>
+    <cellStyle name="Accent1" xfId="177"/>
+    <cellStyle name="Accent2" xfId="178"/>
+    <cellStyle name="Accent3" xfId="179"/>
+    <cellStyle name="Accent4" xfId="180"/>
+    <cellStyle name="Accent5" xfId="181"/>
+    <cellStyle name="Accent6" xfId="182"/>
+    <cellStyle name="AeE­ [0]_½CAuCoE² " xfId="183"/>
+    <cellStyle name="AeE­_½CAuCoE² " xfId="184"/>
+    <cellStyle name="AÞ¸¶ [0]_½CAuCoE² " xfId="185"/>
+    <cellStyle name="AÞ¸¶_½CAuCoE² " xfId="186"/>
+    <cellStyle name="Bad" xfId="187"/>
+    <cellStyle name="C?AØ_¿?¾÷CoE² " xfId="188"/>
+    <cellStyle name="C￥AØ_¿μ¾÷CoE² " xfId="189"/>
     <cellStyle name="Calc Currency (0)" xfId="6"/>
-    <cellStyle name="Calculation" xfId="191"/>
-    <cellStyle name="Check Cell" xfId="192"/>
-    <cellStyle name="Comma [0]" xfId="193"/>
-    <cellStyle name="Comma_G&amp;A diff NE-FIN vs Company subm #2" xfId="194"/>
-    <cellStyle name="Currency [0]" xfId="195"/>
-    <cellStyle name="Currency_G&amp;A diff NE-FIN vs Company subm #2" xfId="196"/>
-    <cellStyle name="Currency1" xfId="197"/>
-    <cellStyle name="entry" xfId="198"/>
-    <cellStyle name="Explanatory Text" xfId="199"/>
-    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="200"/>
-    <cellStyle name="Followed Hyperlink" xfId="201"/>
-    <cellStyle name="Good" xfId="202"/>
+    <cellStyle name="Calculation" xfId="190"/>
+    <cellStyle name="Check Cell" xfId="191"/>
+    <cellStyle name="Comma [0]" xfId="192"/>
+    <cellStyle name="Currency [0]" xfId="193"/>
+    <cellStyle name="Currency1" xfId="194"/>
+    <cellStyle name="entry" xfId="195"/>
+    <cellStyle name="Explanatory Text" xfId="196"/>
+    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="197"/>
+    <cellStyle name="Followed Hyperlink" xfId="198"/>
+    <cellStyle name="Good" xfId="199"/>
     <cellStyle name="Grey" xfId="7"/>
     <cellStyle name="Header1" xfId="8"/>
     <cellStyle name="Header2" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="203"/>
-    <cellStyle name="Heading 2" xfId="204"/>
-    <cellStyle name="Heading 3" xfId="205"/>
-    <cellStyle name="Heading 4" xfId="206"/>
-    <cellStyle name="Hyperlink" xfId="207"/>
-    <cellStyle name="IBM(401K)" xfId="208"/>
-    <cellStyle name="Input" xfId="209"/>
+    <cellStyle name="Heading 1" xfId="200"/>
+    <cellStyle name="Heading 2" xfId="201"/>
+    <cellStyle name="Heading 3" xfId="202"/>
+    <cellStyle name="Heading 4" xfId="203"/>
+    <cellStyle name="Hyperlink" xfId="204"/>
+    <cellStyle name="IBM(401K)" xfId="205"/>
+    <cellStyle name="Input" xfId="206"/>
     <cellStyle name="Input [yellow]" xfId="10"/>
-    <cellStyle name="J401K" xfId="210"/>
-    <cellStyle name="Komma [0]_laroux" xfId="211"/>
-    <cellStyle name="Komma_laroux" xfId="212"/>
-    <cellStyle name="Lien hypertexte" xfId="213"/>
-    <cellStyle name="Lien hypertexte visit " xfId="214"/>
-    <cellStyle name="Lien hypertexte visit?" xfId="215"/>
-    <cellStyle name="Lien hypertexte visite" xfId="216"/>
-    <cellStyle name="Lien hypertexte visité" xfId="217"/>
-    <cellStyle name="Lien hypertexte visite_2002 06 30 Attach 09 Market Code" xfId="218"/>
-    <cellStyle name="Lien hypertexte_Attach 17 Model Year" xfId="219"/>
-    <cellStyle name="Linked Cell" xfId="220"/>
-    <cellStyle name="Milliers [0]_AR1194" xfId="221"/>
-    <cellStyle name="Milliers_AR1194" xfId="222"/>
-    <cellStyle name="Mon騁aire [0]_AR1194" xfId="223"/>
-    <cellStyle name="Mon騁aire_AR1194" xfId="224"/>
-    <cellStyle name="Neutral" xfId="225"/>
+    <cellStyle name="J401K" xfId="207"/>
+    <cellStyle name="Komma [0]_laroux" xfId="208"/>
+    <cellStyle name="Komma_laroux" xfId="209"/>
+    <cellStyle name="Lien hypertexte" xfId="210"/>
+    <cellStyle name="Lien hypertexte visit " xfId="211"/>
+    <cellStyle name="Lien hypertexte visit?" xfId="212"/>
+    <cellStyle name="Lien hypertexte visite" xfId="213"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214"/>
+    <cellStyle name="Lien hypertexte visite_2002 06 30 Attach 09 Market Code" xfId="215"/>
+    <cellStyle name="Lien hypertexte_Attach 17 Model Year" xfId="216"/>
+    <cellStyle name="Linked Cell" xfId="217"/>
+    <cellStyle name="Milliers [0]_AR1194" xfId="218"/>
+    <cellStyle name="Milliers_AR1194" xfId="219"/>
+    <cellStyle name="Mon騁aire [0]_AR1194" xfId="220"/>
+    <cellStyle name="Mon騁aire_AR1194" xfId="221"/>
+    <cellStyle name="Neutral" xfId="222"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal - Style1" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="226"/>
-    <cellStyle name="Normal_#18-Internet" xfId="12"/>
-    <cellStyle name="Note" xfId="227"/>
-    <cellStyle name="Œ…‹aO‚e [0.00]_Other MP and Fixed Cost" xfId="228"/>
-    <cellStyle name="Œ…‹aO‚e_Other MP and Fixed Cost" xfId="229"/>
-    <cellStyle name="Output" xfId="230"/>
-    <cellStyle name="Percent [2]" xfId="13"/>
-    <cellStyle name="price" xfId="231"/>
-    <cellStyle name="Q3" xfId="232"/>
-    <cellStyle name="revised" xfId="233"/>
-    <cellStyle name="SAPBEXaggData" xfId="234"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="235"/>
-    <cellStyle name="SAPBEXaggItem" xfId="236"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="237"/>
-    <cellStyle name="SAPBEXchaText" xfId="238"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="239"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="240"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="241"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="242"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="243"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="244"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="245"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="246"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="247"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="248"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="249"/>
-    <cellStyle name="SAPBEXfilterText" xfId="250"/>
-    <cellStyle name="SAPBEXformats" xfId="251"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="252"/>
-    <cellStyle name="SAPBEXheaderText" xfId="253"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="254"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="255"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="256"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="257"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="258"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="259"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="260"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="261"/>
-    <cellStyle name="SAPBEXresData" xfId="262"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="263"/>
-    <cellStyle name="SAPBEXresItem" xfId="264"/>
-    <cellStyle name="SAPBEXresItemX" xfId="265"/>
-    <cellStyle name="SAPBEXstdData" xfId="266"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="267"/>
-    <cellStyle name="SAPBEXstdItem" xfId="268"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="269"/>
-    <cellStyle name="SAPBEXtitle" xfId="270"/>
-    <cellStyle name="SAPBEXundefined" xfId="271"/>
-    <cellStyle name="SAPBorder" xfId="24"/>
-    <cellStyle name="SAPDataCell" xfId="25"/>
-    <cellStyle name="SAPDataTotalCell" xfId="26"/>
-    <cellStyle name="SAPDimensionCell" xfId="27"/>
-    <cellStyle name="SAPEmphasized" xfId="28"/>
-    <cellStyle name="SAPExceptionLevel1" xfId="29"/>
-    <cellStyle name="SAPExceptionLevel2" xfId="30"/>
-    <cellStyle name="SAPExceptionLevel3" xfId="31"/>
-    <cellStyle name="SAPExceptionLevel4" xfId="32"/>
-    <cellStyle name="SAPExceptionLevel5" xfId="33"/>
-    <cellStyle name="SAPExceptionLevel6" xfId="34"/>
-    <cellStyle name="SAPExceptionLevel7" xfId="35"/>
-    <cellStyle name="SAPExceptionLevel8" xfId="36"/>
-    <cellStyle name="SAPExceptionLevel9" xfId="37"/>
-    <cellStyle name="SAPHierarchyCell0" xfId="38"/>
-    <cellStyle name="SAPHierarchyCell1" xfId="39"/>
-    <cellStyle name="SAPHierarchyCell2" xfId="40"/>
-    <cellStyle name="SAPHierarchyCell3" xfId="41"/>
-    <cellStyle name="SAPHierarchyCell4" xfId="42"/>
-    <cellStyle name="SAPMemberCell" xfId="43"/>
-    <cellStyle name="SAPMemberTotalCell" xfId="44"/>
-    <cellStyle name="section" xfId="272"/>
-    <cellStyle name="Standaard_laroux" xfId="273"/>
-    <cellStyle name="Style1" xfId="274"/>
-    <cellStyle name="subhead" xfId="275"/>
-    <cellStyle name="title" xfId="276"/>
-    <cellStyle name="Total" xfId="277"/>
-    <cellStyle name="Valuta [0]_laroux" xfId="278"/>
-    <cellStyle name="Valuta_laroux" xfId="279"/>
-    <cellStyle name="Warning Text" xfId="280"/>
-    <cellStyle name="アクセント 1 2" xfId="281"/>
-    <cellStyle name="アクセント 1 3" xfId="282"/>
-    <cellStyle name="アクセント 2 2" xfId="283"/>
-    <cellStyle name="アクセント 2 3" xfId="284"/>
-    <cellStyle name="アクセント 3 2" xfId="285"/>
-    <cellStyle name="アクセント 3 3" xfId="286"/>
-    <cellStyle name="アクセント 4 2" xfId="287"/>
-    <cellStyle name="アクセント 4 3" xfId="288"/>
-    <cellStyle name="アクセント 5 2" xfId="289"/>
-    <cellStyle name="アクセント 5 3" xfId="290"/>
-    <cellStyle name="アクセント 6 2" xfId="291"/>
-    <cellStyle name="アクセント 6 3" xfId="292"/>
-    <cellStyle name="ｳ｣ｹ訐laroux" xfId="293"/>
-    <cellStyle name="ｳ｣ｹ訐PERSONAL" xfId="294"/>
-    <cellStyle name="ｳ｣ｹ訐ﾓｲｼ" xfId="295"/>
-    <cellStyle name="ｳ｣ｹ訐ﾗ､ﾂ昉・" xfId="296"/>
-    <cellStyle name="ｹ鮗ﾐﾀｲ_ｰ豼ｵﾁ･" xfId="297"/>
-    <cellStyle name="ｺﾒﾝﾄ" xfId="298"/>
-    <cellStyle name="ｺﾒﾝﾄ見出" xfId="299"/>
-    <cellStyle name="ｻﾒ[0]_laroux" xfId="300"/>
-    <cellStyle name="ｻﾒ_1000A UNIX" xfId="301"/>
-    <cellStyle name="ｼｽﾃﾑ設定" xfId="302"/>
-    <cellStyle name="スタイル 1" xfId="303"/>
-    <cellStyle name="スタイル 1 2" xfId="304"/>
-    <cellStyle name="スタイル 2" xfId="305"/>
-    <cellStyle name="センター" xfId="306"/>
-    <cellStyle name="タイトル 2" xfId="307"/>
-    <cellStyle name="タイトル 3" xfId="308"/>
-    <cellStyle name="チェック セル 2" xfId="309"/>
-    <cellStyle name="チェック セル 3" xfId="310"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ｰ霾ｹ" xfId="311"/>
-    <cellStyle name="ﾄﾞｸｶ_ｰ霾ｹ" xfId="312"/>
-    <cellStyle name="どちらでもない 2" xfId="313"/>
-    <cellStyle name="どちらでもない 3" xfId="314"/>
-    <cellStyle name="トピックス" xfId="315"/>
-    <cellStyle name="ﾅ・ｭ [0]_ｰ霾ｹ" xfId="316"/>
-    <cellStyle name="ﾅ・ｭ_ｰ霾ｹ" xfId="317"/>
-    <cellStyle name="ﾇ･ﾁﾘ_ｰ霾ｹ" xfId="318"/>
-    <cellStyle name="ﾇｧﾎｻ[0]_laroux" xfId="319"/>
-    <cellStyle name="ﾇｧﾎｻ_laroux" xfId="320"/>
-    <cellStyle name="ﾇｧﾎｻｷﾖｸ0]_PERSONAL" xfId="321"/>
-    <cellStyle name="ﾇｧﾎｻｷﾖｸPERSONAL" xfId="322"/>
+    <cellStyle name="Normal 2" xfId="223"/>
+    <cellStyle name="Note" xfId="224"/>
+    <cellStyle name="Œ…‹aO‚e [0.00]_Other MP and Fixed Cost" xfId="225"/>
+    <cellStyle name="Œ…‹aO‚e_Other MP and Fixed Cost" xfId="226"/>
+    <cellStyle name="Output" xfId="227"/>
+    <cellStyle name="Percent [2]" xfId="12"/>
+    <cellStyle name="price" xfId="228"/>
+    <cellStyle name="Q3" xfId="229"/>
+    <cellStyle name="revised" xfId="230"/>
+    <cellStyle name="SAPBEXaggData" xfId="231"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="232"/>
+    <cellStyle name="SAPBEXaggItem" xfId="233"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="234"/>
+    <cellStyle name="SAPBEXchaText" xfId="235"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="236"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="237"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="238"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="239"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="240"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="241"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="242"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="243"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="244"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="245"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="246"/>
+    <cellStyle name="SAPBEXfilterText" xfId="247"/>
+    <cellStyle name="SAPBEXformats" xfId="248"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="249"/>
+    <cellStyle name="SAPBEXheaderText" xfId="250"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="251"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="252"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="253"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="254"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="255"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="256"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="257"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="258"/>
+    <cellStyle name="SAPBEXresData" xfId="259"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="260"/>
+    <cellStyle name="SAPBEXresItem" xfId="261"/>
+    <cellStyle name="SAPBEXresItemX" xfId="262"/>
+    <cellStyle name="SAPBEXstdData" xfId="263"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="264"/>
+    <cellStyle name="SAPBEXstdItem" xfId="265"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="266"/>
+    <cellStyle name="SAPBEXtitle" xfId="267"/>
+    <cellStyle name="SAPBEXundefined" xfId="268"/>
+    <cellStyle name="SAPBorder" xfId="23"/>
+    <cellStyle name="SAPDataCell" xfId="24"/>
+    <cellStyle name="SAPDataTotalCell" xfId="25"/>
+    <cellStyle name="SAPDimensionCell" xfId="26"/>
+    <cellStyle name="SAPEmphasized" xfId="27"/>
+    <cellStyle name="SAPExceptionLevel1" xfId="28"/>
+    <cellStyle name="SAPExceptionLevel2" xfId="29"/>
+    <cellStyle name="SAPExceptionLevel3" xfId="30"/>
+    <cellStyle name="SAPExceptionLevel4" xfId="31"/>
+    <cellStyle name="SAPExceptionLevel5" xfId="32"/>
+    <cellStyle name="SAPExceptionLevel6" xfId="33"/>
+    <cellStyle name="SAPExceptionLevel7" xfId="34"/>
+    <cellStyle name="SAPExceptionLevel8" xfId="35"/>
+    <cellStyle name="SAPExceptionLevel9" xfId="36"/>
+    <cellStyle name="SAPHierarchyCell0" xfId="37"/>
+    <cellStyle name="SAPHierarchyCell1" xfId="38"/>
+    <cellStyle name="SAPHierarchyCell2" xfId="39"/>
+    <cellStyle name="SAPHierarchyCell3" xfId="40"/>
+    <cellStyle name="SAPHierarchyCell4" xfId="41"/>
+    <cellStyle name="SAPMemberCell" xfId="42"/>
+    <cellStyle name="SAPMemberTotalCell" xfId="43"/>
+    <cellStyle name="section" xfId="269"/>
+    <cellStyle name="Standaard_laroux" xfId="270"/>
+    <cellStyle name="Style1" xfId="271"/>
+    <cellStyle name="subhead" xfId="272"/>
+    <cellStyle name="title" xfId="273"/>
+    <cellStyle name="Total" xfId="274"/>
+    <cellStyle name="Valuta [0]_laroux" xfId="275"/>
+    <cellStyle name="Valuta_laroux" xfId="276"/>
+    <cellStyle name="Warning Text" xfId="277"/>
+    <cellStyle name="アクセント 1 2" xfId="278"/>
+    <cellStyle name="アクセント 1 3" xfId="279"/>
+    <cellStyle name="アクセント 2 2" xfId="280"/>
+    <cellStyle name="アクセント 2 3" xfId="281"/>
+    <cellStyle name="アクセント 3 2" xfId="282"/>
+    <cellStyle name="アクセント 3 3" xfId="283"/>
+    <cellStyle name="アクセント 4 2" xfId="284"/>
+    <cellStyle name="アクセント 4 3" xfId="285"/>
+    <cellStyle name="アクセント 5 2" xfId="286"/>
+    <cellStyle name="アクセント 5 3" xfId="287"/>
+    <cellStyle name="アクセント 6 2" xfId="288"/>
+    <cellStyle name="アクセント 6 3" xfId="289"/>
+    <cellStyle name="ｳ｣ｹ訐laroux" xfId="290"/>
+    <cellStyle name="ｳ｣ｹ訐PERSONAL" xfId="291"/>
+    <cellStyle name="ｳ｣ｹ訐ﾓｲｼ" xfId="292"/>
+    <cellStyle name="ｳ｣ｹ訐ﾗ､ﾂ昉・" xfId="293"/>
+    <cellStyle name="ｹ鮗ﾐﾀｲ_ｰ豼ｵﾁ･" xfId="294"/>
+    <cellStyle name="ｺﾒﾝﾄ" xfId="295"/>
+    <cellStyle name="ｺﾒﾝﾄ見出" xfId="296"/>
+    <cellStyle name="ｻﾒ[0]_laroux" xfId="297"/>
+    <cellStyle name="ｻﾒ_1000A UNIX" xfId="298"/>
+    <cellStyle name="ｼｽﾃﾑ設定" xfId="299"/>
+    <cellStyle name="スタイル 1" xfId="300"/>
+    <cellStyle name="スタイル 1 2" xfId="301"/>
+    <cellStyle name="スタイル 2" xfId="302"/>
+    <cellStyle name="センター" xfId="303"/>
+    <cellStyle name="タイトル 2" xfId="304"/>
+    <cellStyle name="タイトル 3" xfId="305"/>
+    <cellStyle name="チェック セル 2" xfId="306"/>
+    <cellStyle name="チェック セル 3" xfId="307"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ｰ霾ｹ" xfId="308"/>
+    <cellStyle name="ﾄﾞｸｶ_ｰ霾ｹ" xfId="309"/>
+    <cellStyle name="どちらでもない 2" xfId="310"/>
+    <cellStyle name="どちらでもない 3" xfId="311"/>
+    <cellStyle name="トピックス" xfId="312"/>
+    <cellStyle name="ﾅ・ｭ [0]_ｰ霾ｹ" xfId="313"/>
+    <cellStyle name="ﾅ・ｭ_ｰ霾ｹ" xfId="314"/>
+    <cellStyle name="ﾇ･ﾁﾘ_ｰ霾ｹ" xfId="315"/>
+    <cellStyle name="ﾇｧﾎｻ[0]_laroux" xfId="316"/>
+    <cellStyle name="ﾇｧﾎｻ_laroux" xfId="317"/>
+    <cellStyle name="ﾇｧﾎｻｷﾖｸ0]_PERSONAL" xfId="318"/>
+    <cellStyle name="ﾇｧﾎｻｷﾖｸPERSONAL" xfId="319"/>
     <cellStyle name="ハイパーリンク 2" xfId="5"/>
-    <cellStyle name="ハイパーリンク 3" xfId="21"/>
-    <cellStyle name="ハイパーリンク 4" xfId="45"/>
-    <cellStyle name="ハイパーリンク 5" xfId="54"/>
-    <cellStyle name="ハイパーリンクTF Mix " xfId="323"/>
-    <cellStyle name="ボタン0" xfId="324"/>
-    <cellStyle name="ボタン1" xfId="325"/>
-    <cellStyle name="ボタン2" xfId="326"/>
-    <cellStyle name="ボタン3" xfId="327"/>
-    <cellStyle name="ボタン4" xfId="328"/>
-    <cellStyle name="ボタン5" xfId="329"/>
-    <cellStyle name="マクロ" xfId="330"/>
-    <cellStyle name="マクロ見出し" xfId="331"/>
-    <cellStyle name="メッセージ" xfId="332"/>
-    <cellStyle name="メモ 2" xfId="333"/>
-    <cellStyle name="メモ 3" xfId="334"/>
-    <cellStyle name="ﾕｰｻﾞ設定" xfId="335"/>
-    <cellStyle name="リンク セル 2" xfId="336"/>
-    <cellStyle name="リンク セル 3" xfId="337"/>
-    <cellStyle name="悪い 2" xfId="338"/>
-    <cellStyle name="悪い 3" xfId="339"/>
-    <cellStyle name="一般_Book1" xfId="340"/>
-    <cellStyle name="貨幣 [0]_Book1" xfId="341"/>
-    <cellStyle name="貨幣_Book1" xfId="342"/>
-    <cellStyle name="解释性文本" xfId="343"/>
-    <cellStyle name="型番" xfId="344"/>
-    <cellStyle name="計算 2" xfId="345"/>
-    <cellStyle name="計算 3" xfId="346"/>
-    <cellStyle name="警告文 2" xfId="347"/>
-    <cellStyle name="警告文 3" xfId="348"/>
-    <cellStyle name="警告文本" xfId="349"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_Feuil1 (2)" xfId="350"/>
-    <cellStyle name="桁蟻唇Ｆ_Feuil1 (2)" xfId="351"/>
-    <cellStyle name="桁区切? [0.00]" xfId="352"/>
-    <cellStyle name="桁区切り [0.0]" xfId="353"/>
-    <cellStyle name="桁区切り 2" xfId="14"/>
-    <cellStyle name="桁区切り 3" xfId="23"/>
-    <cellStyle name="桁区切り 4" xfId="50"/>
-    <cellStyle name="桁区切り 5" xfId="53"/>
-    <cellStyle name="見出" xfId="354"/>
-    <cellStyle name="見出し 1 2" xfId="355"/>
-    <cellStyle name="見出し 1 3" xfId="356"/>
-    <cellStyle name="見出し 2 2" xfId="357"/>
-    <cellStyle name="見出し 2 3" xfId="358"/>
-    <cellStyle name="見出し 3 2" xfId="359"/>
-    <cellStyle name="見出し 3 3" xfId="360"/>
-    <cellStyle name="見出し 4 2" xfId="361"/>
-    <cellStyle name="見出し 4 3" xfId="362"/>
-    <cellStyle name="見出し0" xfId="363"/>
-    <cellStyle name="見出し1" xfId="364"/>
-    <cellStyle name="見出し2" xfId="365"/>
-    <cellStyle name="見出し3" xfId="366"/>
-    <cellStyle name="見出し4" xfId="367"/>
-    <cellStyle name="見出し5" xfId="368"/>
-    <cellStyle name="好" xfId="369"/>
-    <cellStyle name="好_ＤＢ設計書(IPO)_CNAS" xfId="370"/>
-    <cellStyle name="好_パイプライン連携(案)" xfId="371"/>
-    <cellStyle name="好_外部設計書_PL_CNAS" xfId="372"/>
-    <cellStyle name="構成図作成用" xfId="373"/>
-    <cellStyle name="合計" xfId="374"/>
-    <cellStyle name="差" xfId="375"/>
-    <cellStyle name="差_ＤＢ設計書(IPO)_CNAS" xfId="376"/>
-    <cellStyle name="差_パイプライン連携(案)" xfId="377"/>
-    <cellStyle name="差_外部設計書_PL_CNAS" xfId="378"/>
-    <cellStyle name="集計 2" xfId="379"/>
-    <cellStyle name="集計 3" xfId="380"/>
-    <cellStyle name="出力 2" xfId="381"/>
-    <cellStyle name="出力 3" xfId="382"/>
-    <cellStyle name="少数１位" xfId="383"/>
-    <cellStyle name="少数２位" xfId="384"/>
-    <cellStyle name="常规 7" xfId="385"/>
-    <cellStyle name="常规_01_WEB_Screen_Layout(REGIONAL HEADQUARTER)" xfId="386"/>
-    <cellStyle name="整数値" xfId="387"/>
-    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="388"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="389"/>
-    <cellStyle name="説明文 2" xfId="390"/>
-    <cellStyle name="説明文 3" xfId="391"/>
-    <cellStyle name="千分位[0]_Book1" xfId="392"/>
-    <cellStyle name="千分位_Book1" xfId="393"/>
-    <cellStyle name="脱浦 [0.00]_97年度吹Y" xfId="394"/>
-    <cellStyle name="脱浦_97年度吹Y" xfId="395"/>
-    <cellStyle name="注释" xfId="396"/>
-    <cellStyle name="通貨 2" xfId="15"/>
-    <cellStyle name="入力 2" xfId="397"/>
-    <cellStyle name="入力 3" xfId="398"/>
-    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 10" xfId="55"/>
-    <cellStyle name="標準 10 2" xfId="399"/>
-    <cellStyle name="標準 11" xfId="400"/>
-    <cellStyle name="標準 12" xfId="401"/>
-    <cellStyle name="標準 14" xfId="458"/>
+    <cellStyle name="ハイパーリンク 3" xfId="20"/>
+    <cellStyle name="ハイパーリンク 4" xfId="44"/>
+    <cellStyle name="ハイパーリンク 5" xfId="53"/>
+    <cellStyle name="ハイパーリンクTF Mix " xfId="320"/>
+    <cellStyle name="ボタン0" xfId="321"/>
+    <cellStyle name="ボタン1" xfId="322"/>
+    <cellStyle name="ボタン2" xfId="323"/>
+    <cellStyle name="ボタン3" xfId="324"/>
+    <cellStyle name="ボタン4" xfId="325"/>
+    <cellStyle name="ボタン5" xfId="326"/>
+    <cellStyle name="マクロ" xfId="327"/>
+    <cellStyle name="マクロ見出し" xfId="328"/>
+    <cellStyle name="メッセージ" xfId="329"/>
+    <cellStyle name="メモ 2" xfId="330"/>
+    <cellStyle name="メモ 3" xfId="331"/>
+    <cellStyle name="ﾕｰｻﾞ設定" xfId="332"/>
+    <cellStyle name="リンク セル 2" xfId="333"/>
+    <cellStyle name="リンク セル 3" xfId="334"/>
+    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="385"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="386"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="426"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="427"/>
+    <cellStyle name="백분율_95" xfId="428"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="429"/>
+    <cellStyle name="콤마 [0]_ " xfId="430"/>
+    <cellStyle name="콤마_ " xfId="431"/>
+    <cellStyle name="통화 [0]_1202" xfId="432"/>
+    <cellStyle name="통화_1202" xfId="433"/>
+    <cellStyle name="표준_(정보부문)월별인원계획" xfId="434"/>
+    <cellStyle name="一般_Book1" xfId="337"/>
+    <cellStyle name="付加情報" xfId="420"/>
+    <cellStyle name="付表" xfId="421"/>
+    <cellStyle name="入力 2" xfId="394"/>
+    <cellStyle name="入力 3" xfId="395"/>
+    <cellStyle name="出力 2" xfId="378"/>
+    <cellStyle name="出力 3" xfId="379"/>
+    <cellStyle name="千分位[0]_Book1" xfId="389"/>
+    <cellStyle name="千分位_Book1" xfId="390"/>
+    <cellStyle name="合計" xfId="371"/>
+    <cellStyle name="型番" xfId="341"/>
+    <cellStyle name="好" xfId="366"/>
+    <cellStyle name="好_ＤＢ設計書(IPO)_CNAS" xfId="367"/>
+    <cellStyle name="好_パイプライン連携(案)" xfId="368"/>
+    <cellStyle name="好_外部設計書_PL_CNAS" xfId="369"/>
+    <cellStyle name="少数１位" xfId="380"/>
+    <cellStyle name="少数２位" xfId="381"/>
+    <cellStyle name="差" xfId="372"/>
+    <cellStyle name="差_ＤＢ設計書(IPO)_CNAS" xfId="373"/>
+    <cellStyle name="差_パイプライン連携(案)" xfId="374"/>
+    <cellStyle name="差_外部設計書_PL_CNAS" xfId="375"/>
+    <cellStyle name="常规 7" xfId="382"/>
+    <cellStyle name="常规_01_WEB_Screen_Layout(REGIONAL HEADQUARTER)" xfId="383"/>
+    <cellStyle name="强调文字颜色 1" xfId="435"/>
+    <cellStyle name="强调文字颜色 2" xfId="436"/>
+    <cellStyle name="强调文字颜色 3" xfId="437"/>
+    <cellStyle name="强调文字颜色 4" xfId="438"/>
+    <cellStyle name="强调文字颜色 5" xfId="439"/>
+    <cellStyle name="强调文字颜色 6" xfId="440"/>
+    <cellStyle name="悪い 2" xfId="335"/>
+    <cellStyle name="悪い 3" xfId="336"/>
+    <cellStyle name="整数値" xfId="384"/>
+    <cellStyle name="普通" xfId="422"/>
+    <cellStyle name="未定義" xfId="423"/>
+    <cellStyle name="标题" xfId="441"/>
+    <cellStyle name="标题 1" xfId="442"/>
+    <cellStyle name="标题 2" xfId="443"/>
+    <cellStyle name="标题 3" xfId="444"/>
+    <cellStyle name="标题 4" xfId="445"/>
+    <cellStyle name="标题_ＤＢ設計書(IPO)_CNAS" xfId="446"/>
+    <cellStyle name="样式 1" xfId="447"/>
+    <cellStyle name="桁区切? [0.00]" xfId="349"/>
+    <cellStyle name="桁区切り [0.0]" xfId="350"/>
+    <cellStyle name="桁区切り 2" xfId="13"/>
+    <cellStyle name="桁区切り 3" xfId="22"/>
+    <cellStyle name="桁区切り 4" xfId="49"/>
+    <cellStyle name="桁区切り 5" xfId="52"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_Feuil1 (2)" xfId="347"/>
+    <cellStyle name="桁蟻唇Ｆ_Feuil1 (2)" xfId="348"/>
+    <cellStyle name="检查单元格" xfId="448"/>
+    <cellStyle name="構成図作成用" xfId="370"/>
+    <cellStyle name="標準 10" xfId="54"/>
+    <cellStyle name="標準 10 2" xfId="396"/>
+    <cellStyle name="標準 11" xfId="397"/>
+    <cellStyle name="標準 12" xfId="398"/>
+    <cellStyle name="標準 14" xfId="455"/>
     <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3" xfId="402"/>
-    <cellStyle name="標準 2 4" xfId="403"/>
-    <cellStyle name="標準 2 5" xfId="404"/>
-    <cellStyle name="標準 2_【N-Biz連携】課題管理表" xfId="405"/>
+    <cellStyle name="標準 2 2" xfId="15"/>
+    <cellStyle name="標準 2 3" xfId="399"/>
+    <cellStyle name="標準 2 4" xfId="400"/>
+    <cellStyle name="標準 2 5" xfId="401"/>
+    <cellStyle name="標準 2_【N-Biz連携】課題管理表" xfId="402"/>
     <cellStyle name="標準 3" xfId="2"/>
-    <cellStyle name="標準 3 2" xfId="17"/>
-    <cellStyle name="標準 3 2 2" xfId="46"/>
-    <cellStyle name="標準 3 3" xfId="18"/>
-    <cellStyle name="標準 3 3 2" xfId="47"/>
-    <cellStyle name="標準 3 4" xfId="48"/>
+    <cellStyle name="標準 3 2" xfId="16"/>
+    <cellStyle name="標準 3 2 2" xfId="45"/>
+    <cellStyle name="標準 3 3" xfId="17"/>
+    <cellStyle name="標準 3 3 2" xfId="46"/>
+    <cellStyle name="標準 3 4" xfId="47"/>
     <cellStyle name="標準 4" xfId="3"/>
-    <cellStyle name="標準 4 2" xfId="51"/>
+    <cellStyle name="標準 4 2" xfId="50"/>
     <cellStyle name="標準 5" xfId="4"/>
-    <cellStyle name="標準 5 2" xfId="49"/>
-    <cellStyle name="標準 5 3" xfId="406"/>
-    <cellStyle name="標準 5 3 2" xfId="407"/>
-    <cellStyle name="標準 6" xfId="19"/>
-    <cellStyle name="標準 6 2" xfId="408"/>
-    <cellStyle name="標準 7" xfId="20"/>
-    <cellStyle name="標準 7 2" xfId="409"/>
-    <cellStyle name="標準 7 3" xfId="410"/>
-    <cellStyle name="標準 7 3 2" xfId="411"/>
-    <cellStyle name="標準 7 3 2 2" xfId="412"/>
-    <cellStyle name="標準 7 3 3" xfId="413"/>
-    <cellStyle name="標準 8" xfId="22"/>
-    <cellStyle name="標準 8 2" xfId="414"/>
-    <cellStyle name="標準 8 2 2" xfId="415"/>
-    <cellStyle name="標準 8 3" xfId="416"/>
-    <cellStyle name="標準 9" xfId="52"/>
-    <cellStyle name="標準 9 2" xfId="417"/>
-    <cellStyle name="標準 9 2 2" xfId="418"/>
-    <cellStyle name="標準 9 3" xfId="419"/>
-    <cellStyle name="標準１" xfId="420"/>
-    <cellStyle name="標準２" xfId="421"/>
-    <cellStyle name="標準仕様書" xfId="422"/>
-    <cellStyle name="付加情報" xfId="423"/>
-    <cellStyle name="付表" xfId="424"/>
-    <cellStyle name="普通" xfId="425"/>
-    <cellStyle name="未定義" xfId="426"/>
-    <cellStyle name="良い 2" xfId="427"/>
-    <cellStyle name="良い 3" xfId="428"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="429"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="430"/>
-    <cellStyle name="백분율_95" xfId="431"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="432"/>
-    <cellStyle name="콤마 [0]_ " xfId="433"/>
-    <cellStyle name="콤마_ " xfId="434"/>
-    <cellStyle name="통화 [0]_1202" xfId="435"/>
-    <cellStyle name="통화_1202" xfId="436"/>
-    <cellStyle name="표준_(정보부문)월별인원계획" xfId="437"/>
-    <cellStyle name="强调文字颜色 1" xfId="438"/>
-    <cellStyle name="强调文字颜色 2" xfId="439"/>
-    <cellStyle name="强调文字颜色 3" xfId="440"/>
-    <cellStyle name="强调文字颜色 4" xfId="441"/>
-    <cellStyle name="强调文字颜色 5" xfId="442"/>
-    <cellStyle name="强调文字颜色 6" xfId="443"/>
-    <cellStyle name="标题" xfId="444"/>
-    <cellStyle name="标题 1" xfId="445"/>
-    <cellStyle name="标题 2" xfId="446"/>
-    <cellStyle name="标题 3" xfId="447"/>
-    <cellStyle name="标题 4" xfId="448"/>
-    <cellStyle name="标题_ＤＢ設計書(IPO)_CNAS" xfId="449"/>
-    <cellStyle name="样式 1" xfId="450"/>
-    <cellStyle name="检查单元格" xfId="451"/>
-    <cellStyle name="汇总" xfId="452"/>
-    <cellStyle name="计算" xfId="453"/>
-    <cellStyle name="输出" xfId="454"/>
-    <cellStyle name="输入" xfId="455"/>
-    <cellStyle name="适中" xfId="456"/>
-    <cellStyle name="链接单元格" xfId="457"/>
+    <cellStyle name="標準 5 2" xfId="48"/>
+    <cellStyle name="標準 5 3" xfId="403"/>
+    <cellStyle name="標準 5 3 2" xfId="404"/>
+    <cellStyle name="標準 6" xfId="18"/>
+    <cellStyle name="標準 6 2" xfId="405"/>
+    <cellStyle name="標準 7" xfId="19"/>
+    <cellStyle name="標準 7 2" xfId="406"/>
+    <cellStyle name="標準 7 3" xfId="407"/>
+    <cellStyle name="標準 7 3 2" xfId="408"/>
+    <cellStyle name="標準 7 3 2 2" xfId="409"/>
+    <cellStyle name="標準 7 3 3" xfId="410"/>
+    <cellStyle name="標準 8" xfId="21"/>
+    <cellStyle name="標準 8 2" xfId="411"/>
+    <cellStyle name="標準 8 2 2" xfId="412"/>
+    <cellStyle name="標準 8 3" xfId="413"/>
+    <cellStyle name="標準 9" xfId="51"/>
+    <cellStyle name="標準 9 2" xfId="414"/>
+    <cellStyle name="標準 9 2 2" xfId="415"/>
+    <cellStyle name="標準 9 3" xfId="416"/>
+    <cellStyle name="標準１" xfId="417"/>
+    <cellStyle name="標準２" xfId="418"/>
+    <cellStyle name="標準仕様書" xfId="419"/>
+    <cellStyle name="汇总" xfId="449"/>
+    <cellStyle name="注释" xfId="393"/>
+    <cellStyle name="脱浦 [0.00]_97年度吹Y" xfId="391"/>
+    <cellStyle name="脱浦_97年度吹Y" xfId="392"/>
+    <cellStyle name="良い 2" xfId="424"/>
+    <cellStyle name="良い 3" xfId="425"/>
+    <cellStyle name="見出" xfId="351"/>
+    <cellStyle name="見出し 1 2" xfId="352"/>
+    <cellStyle name="見出し 1 3" xfId="353"/>
+    <cellStyle name="見出し 2 2" xfId="354"/>
+    <cellStyle name="見出し 2 3" xfId="355"/>
+    <cellStyle name="見出し 3 2" xfId="356"/>
+    <cellStyle name="見出し 3 3" xfId="357"/>
+    <cellStyle name="見出し 4 2" xfId="358"/>
+    <cellStyle name="見出し 4 3" xfId="359"/>
+    <cellStyle name="見出し0" xfId="360"/>
+    <cellStyle name="見出し1" xfId="361"/>
+    <cellStyle name="見出し2" xfId="362"/>
+    <cellStyle name="見出し3" xfId="363"/>
+    <cellStyle name="見出し4" xfId="364"/>
+    <cellStyle name="見出し5" xfId="365"/>
+    <cellStyle name="解释性文本" xfId="340"/>
+    <cellStyle name="計算 2" xfId="342"/>
+    <cellStyle name="計算 3" xfId="343"/>
+    <cellStyle name="説明文 2" xfId="387"/>
+    <cellStyle name="説明文 3" xfId="388"/>
+    <cellStyle name="警告文 2" xfId="344"/>
+    <cellStyle name="警告文 3" xfId="345"/>
+    <cellStyle name="警告文本" xfId="346"/>
+    <cellStyle name="计算" xfId="450"/>
+    <cellStyle name="貨幣 [0]_Book1" xfId="338"/>
+    <cellStyle name="貨幣_Book1" xfId="339"/>
+    <cellStyle name="输入" xfId="452"/>
+    <cellStyle name="输出" xfId="451"/>
+    <cellStyle name="适中" xfId="453"/>
+    <cellStyle name="通貨 2" xfId="14"/>
+    <cellStyle name="链接单元格" xfId="454"/>
+    <cellStyle name="集計 2" xfId="376"/>
+    <cellStyle name="集計 3" xfId="377"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4563,13 +4556,15 @@
   </sheetPr>
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="24" width="3.36328125" style="2" customWidth="1"/>
-    <col min="25" max="56" width="3.90625" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="24" width="3.33203125" style="2" customWidth="1"/>
+    <col min="25" max="56" width="3.88671875" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickTop="1">
@@ -6261,7 +6256,7 @@
   <phoneticPr fontId="163"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Meiryo UI,太字"&amp;14 Amigo Cloud EDI 登録完了通知&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;R&amp;9&amp;K00-034NISSAN SHATAI COMPUTER SERVICE  CO.,LTD.</oddFooter>
